--- a/20180519-resorts/build/data/maindata.xlsx
+++ b/20180519-resorts/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="1660" windowWidth="28620" windowHeight="18220" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="0" windowWidth="28620" windowHeight="18220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="resorts" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="437">
   <si>
     <t>Name</t>
   </si>
@@ -1334,12 +1334,33 @@
   <si>
     <t>longitude</t>
   </si>
+  <si>
+    <t>Source: Star Tribune Analysis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Star Tribune Analysis</t>
+  </si>
+  <si>
+    <t>resorts</t>
+  </si>
+  <si>
+    <t>User submitted Minnesota resort reviews</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1447,6 +1468,12 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1477,7 +1504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1490,8 +1517,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1561,8 +1590,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1574,6 +1605,8 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1908,9 +1941,9 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4315,13 +4348,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="31"/>
+    <col min="2" max="2" width="31.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="32" customFormat="1">
+      <c r="A6" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4332,12 +4401,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
